--- a/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/random_4_parsed_output/tokens_pure_noise.xlsx
+++ b/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/random_4_parsed_output/tokens_pure_noise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,21 +480,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>target group</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> QUALITY</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
